--- a/TestList/6.0SJbuyclass.xlsx
+++ b/TestList/6.0SJbuyclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>序号
 （id）</t>
@@ -78,7 +78,7 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div[2]/div[2]/form/ul/li[1]/input</t>
   </si>
   <si>
-    <t>350881197805060002</t>
+    <t>421002198605315370</t>
   </si>
   <si>
     <t>password</t>
@@ -87,9 +87,6 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div[2]/div[2]/form/ul/li[2]/input</t>
   </si>
   <si>
-    <t>000000</t>
-  </si>
-  <si>
     <t>clickcode</t>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <t>classdetail</t>
   </si>
   <si>
-    <t>https://scjs2.59iedu.com/center/#/signUpTraining/introduction/2c90809471bf2fe501725e459f3e2904</t>
+    <t>https://scjs2.59iedu.com/center/#/signUpTraining/introduction/2c9080c57596915e0179409868b06750</t>
   </si>
   <si>
     <t>buy</t>
@@ -159,7 +156,7 @@
     <t>//*[@id="main_operation"]/div[1]/ul/li[1]/input</t>
   </si>
   <si>
-    <t>testtk</t>
+    <t>wuzhengbiao</t>
   </si>
   <si>
     <t>passwordadmin</t>
@@ -283,8 +280,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -304,36 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -362,42 +322,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +351,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -424,8 +382,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +397,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,37 +445,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,145 +613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,40 +643,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +665,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -725,6 +687,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,16 +716,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +754,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -776,112 +773,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1257,7 +1254,7 @@
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="104.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1358,8 +1355,8 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
+      <c r="F5" s="1">
+        <v>315370</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -1367,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1376,10 +1373,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
@@ -1387,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1407,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1416,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1427,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1447,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1455,8 +1452,8 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1467,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1476,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1487,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1496,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1507,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1516,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1527,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1535,7 +1532,7 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1547,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1556,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1567,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1575,8 +1572,8 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
+      <c r="E16" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1587,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1596,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1607,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1616,10 +1613,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1627,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1636,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1647,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1656,10 +1653,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1667,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -1676,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1687,16 +1684,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1707,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1716,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
@@ -1727,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1735,19 +1732,19 @@
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>58</v>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1756,18 +1753,18 @@
         <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -1776,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1787,7 +1784,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -1796,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1807,7 +1804,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -1816,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1827,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1836,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
@@ -1847,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -1856,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1867,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -1876,10 +1873,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1887,7 +1884,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -1896,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1907,27 +1904,27 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1936,18 +1933,18 @@
         <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:6">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -1956,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -1967,7 +1964,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1976,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -1987,16 +1984,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -2004,25 +2001,22 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C27 C25:C26 C28:C29 C30:C31">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C33 C37 C4:C5 C20:C21">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D16 D17 D18 D19 D22 D23 D24 D27 D32 D33 D34 D35 D36 D37 D20:D21 D25:D26 D28:D31">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C27 C25:C26 C28:C29 C30:C31">
+      <formula1>"访问,输入,点击,等待"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D65518">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="https://scjs2.59iedu.com/index" tooltip="https://scjs2.59iedu.com/index"/>
-    <hyperlink ref="E16" r:id="rId2" display="https://scjs2.59iedu.com/login/index.html"/>
-    <hyperlink ref="E24" r:id="rId3" display="https://scjs2.59iedu.com/admin/#/orderManage/" tooltip="https://scjs2.59iedu.com/admin/#/orderManage/"/>
-    <hyperlink ref="E2" r:id="rId1" display="https://scjs2.59iedu.com/index"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://scjs2.59iedu.com/center/#/signUpTraining/introduction/2c90809471bf2fe501725e459f3e2904"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://scjs2.59iedu.com/index" tooltip="https://scjs2.59iedu.com/index"/>
+    <hyperlink ref="E24" r:id="rId2" display="https://scjs2.59iedu.com/admin/#/orderManage/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/6.0SJbuyclass.xlsx
+++ b/TestList/6.0SJbuyclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>序号
 （id）</t>
@@ -78,7 +78,7 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div[2]/div[2]/form/ul/li[1]/input</t>
   </si>
   <si>
-    <t>421002198605315370</t>
+    <t>370205197405213513</t>
   </si>
   <si>
     <t>password</t>
@@ -87,6 +87,9 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div[2]/div[2]/form/ul/li[2]/input</t>
   </si>
   <si>
+    <t>a000000</t>
+  </si>
+  <si>
     <t>clickcode</t>
   </si>
   <si>
@@ -163,9 +166,6 @@
   </si>
   <si>
     <t>//*[@id="main_operation"]/div[1]/ul/li[2]/input</t>
-  </si>
-  <si>
-    <t>a000000</t>
   </si>
   <si>
     <t>clickcodeadmin</t>
@@ -280,8 +280,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -307,23 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +322,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +383,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,23 +391,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,16 +422,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,21 +435,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -445,19 +445,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,163 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,15 +636,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,15 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +669,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,11 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,16 +727,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,128 +754,128 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1355,8 +1355,8 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
-        <v>315370</v>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1373,10 +1373,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1413,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1424,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1453,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1493,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1544,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1553,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1593,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1604,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1613,10 +1613,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1656,7 +1656,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1687,13 +1687,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1907,13 +1907,13 @@
         <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1987,13 +1987,13 @@
         <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
